--- a/output/obs/Summary_missing_obs.xlsx
+++ b/output/obs/Summary_missing_obs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TTD\OneDrive - HEC Montréal\esg\output\obs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED86CA9-AA05-47CB-B986-02C8EED918D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6334B51-DCED-4C97-BBFB-6FBAE9D0A96C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B6803A76-6F49-4F25-B119-B4DE92D05361}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{B6803A76-6F49-4F25-B119-B4DE92D05361}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -10442,7 +10442,7 @@
         <v>Min</v>
       </c>
       <c r="B52" t="str">
-        <f t="shared" ref="B51:B64" si="3">B51</f>
+        <f t="shared" ref="B52:B64" si="3">B51</f>
         <v>daily_6f_env_missing_obs</v>
       </c>
       <c r="C52" s="10">
@@ -12524,7 +12524,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
